--- a/table/lm/bio_sp_lm.xlsx
+++ b/table/lm/bio_sp_lm.xlsx
@@ -392,16 +392,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>1.044498538196442</v>
+        <v>1.0445</v>
       </c>
       <c r="C2">
-        <v>0.1580536436262634</v>
+        <v>0.1581</v>
       </c>
       <c r="D2">
-        <v>6.6085065439319</v>
+        <v>6.6085</v>
       </c>
       <c r="E2">
-        <v>5.220995948556922e-007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -411,16 +411,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>-0.3620971573167616</v>
+        <v>-0.3621</v>
       </c>
       <c r="C3">
-        <v>0.2097657543780877</v>
+        <v>0.2098</v>
       </c>
       <c r="D3">
-        <v>-1.726197674116564</v>
+        <v>-1.7262</v>
       </c>
       <c r="E3">
-        <v>0.09617835533894423</v>
+        <v>0.09619999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -430,16 +430,16 @@
         </is>
       </c>
       <c r="B4">
-        <v>-0.1178129235351061</v>
+        <v>-0.1178</v>
       </c>
       <c r="C4">
-        <v>0.1872208874060833</v>
+        <v>0.1872</v>
       </c>
       <c r="D4">
-        <v>-0.6292723272888303</v>
+        <v>-0.6293</v>
       </c>
       <c r="E4">
-        <v>0.5346614150429994</v>
+        <v>0.5347</v>
       </c>
     </row>
     <row r="5">
@@ -449,16 +449,16 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.1365970231980666</v>
+        <v>0.1366</v>
       </c>
       <c r="C5">
-        <v>0.2228391463758069</v>
+        <v>0.2228</v>
       </c>
       <c r="D5">
-        <v>0.6129848611415102</v>
+        <v>0.613</v>
       </c>
       <c r="E5">
-        <v>0.5452115330798241</v>
+        <v>0.5452</v>
       </c>
     </row>
     <row r="6">
@@ -468,16 +468,16 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.07293885038244671</v>
+        <v>0.07290000000000001</v>
       </c>
       <c r="C6">
-        <v>0.1651055610653524</v>
+        <v>0.1651</v>
       </c>
       <c r="D6">
-        <v>0.4417710094790563</v>
+        <v>0.4418</v>
       </c>
       <c r="E6">
-        <v>0.6623075216644103</v>
+        <v>0.6623</v>
       </c>
     </row>
     <row r="7">
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.743246785431069</v>
+        <v>0.7432</v>
       </c>
       <c r="C7">
-        <v>0.2321085218728262</v>
+        <v>0.2321</v>
       </c>
       <c r="D7">
-        <v>3.202152077114596</v>
+        <v>3.2022</v>
       </c>
       <c r="E7">
-        <v>0.003583578285981107</v>
+        <v>0.0036</v>
       </c>
     </row>
     <row r="8">
@@ -506,16 +506,16 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.3253891143079105</v>
+        <v>0.3254</v>
       </c>
       <c r="C8">
-        <v>0.2404441152282039</v>
+        <v>0.2404</v>
       </c>
       <c r="D8">
-        <v>1.353283751607254</v>
+        <v>1.3533</v>
       </c>
       <c r="E8">
-        <v>0.1876149560765184</v>
+        <v>0.1876</v>
       </c>
     </row>
   </sheetData>

--- a/table/lm/bio_sp_lm.xlsx
+++ b/table/lm/bio_sp_lm.xlsx
@@ -445,7 +445,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CruiseOR1-1242</t>
+          <t>MonthOctober</t>
         </is>
       </c>
       <c r="B5">
@@ -483,7 +483,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DRM:CruiseOR1-1242</t>
+          <t>DRM:MonthOctober</t>
         </is>
       </c>
       <c r="B7">
@@ -502,7 +502,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Depth:CruiseOR1-1242</t>
+          <t>Depth:MonthOctober</t>
         </is>
       </c>
       <c r="B8">
@@ -560,13 +560,13 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.4053986377333109</v>
+        <v>0.4053986377333108</v>
       </c>
       <c r="B2">
-        <v>0.2681829387486903</v>
+        <v>0.2681829387486901</v>
       </c>
       <c r="C2">
-        <v>2.954462504897117</v>
+        <v>2.954462504897116</v>
       </c>
       <c r="D2">
         <v>26</v>
